--- a/data/trans_orig/P05A01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P05A01-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80CAD9B5-693B-4F75-AB60-13A8D354BFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CB65FAB-26FD-4627-BBD6-48EEFF04DC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{46484877-7698-4ABF-9236-D37946F2C8C0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E8BEB8C4-FA38-4811-A128-FEAA43FA3766}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="437">
   <si>
     <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2007 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>54,71%</t>
   </si>
   <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
   </si>
   <si>
     <t>52,14%</t>
   </si>
   <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
   </si>
   <si>
     <t>53,27%</t>
   </si>
   <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
   </si>
   <si>
     <t>Algo</t>
@@ -107,28 +107,28 @@
     <t>35,16%</t>
   </si>
   <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
   </si>
   <si>
     <t>34,38%</t>
   </si>
   <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
   </si>
   <si>
     <t>34,72%</t>
   </si>
   <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -137,28 +137,28 @@
     <t>10,13%</t>
   </si>
   <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
   </si>
   <si>
     <t>13,48%</t>
   </si>
   <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
   </si>
   <si>
     <t>12,01%</t>
   </si>
   <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
   </si>
   <si>
     <t>100%</t>
@@ -170,1156 +170,1171 @@
     <t>51,68%</t>
   </si>
   <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
   </si>
   <si>
     <t>49,06%</t>
   </si>
   <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
   </si>
   <si>
     <t>50,42%</t>
   </si>
   <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
   </si>
   <si>
     <t>39,07%</t>
   </si>
   <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
   </si>
   <si>
     <t>37,35%</t>
   </si>
   <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
   </si>
   <si>
     <t>38,24%</t>
   </si>
   <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
   </si>
   <si>
     <t>9,24%</t>
   </si>
   <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
   </si>
   <si>
     <t>13,59%</t>
   </si>
   <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
     <t>12,0%</t>
   </si>
   <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
   </si>
   <si>
     <t>13,29%</t>
   </si>
   <si>
-    <t>10,29%</t>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2016 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
   </si>
   <si>
     <t>16,58%</t>
   </si>
   <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
   </si>
   <si>
     <t>19,13%</t>
   </si>
   <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2015 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
   </si>
   <si>
     <t>4,38%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
   </si>
   <si>
     <t>6,12%</t>
@@ -1746,7 +1761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F322389-7B77-4D1C-87FE-FF420AF339D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{343004C9-95DE-4590-8766-ABD52C92CBC8}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2226,7 +2241,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -2384,13 +2399,13 @@
         <v>66094</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>59</v>
@@ -2399,13 +2414,13 @@
         <v>63331</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>122</v>
@@ -2414,13 +2429,13 @@
         <v>129425</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,13 +2503,13 @@
         <v>1731295</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>1651</v>
@@ -2503,13 +2518,13 @@
         <v>1697680</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>3337</v>
@@ -2518,13 +2533,13 @@
         <v>3428975</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2539,13 +2554,13 @@
         <v>1216475</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>1196</v>
@@ -2554,13 +2569,13 @@
         <v>1221767</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>2407</v>
@@ -2569,13 +2584,13 @@
         <v>2438242</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,13 +2605,13 @@
         <v>327061</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>446</v>
@@ -2605,13 +2620,13 @@
         <v>455922</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>761</v>
@@ -2620,13 +2635,13 @@
         <v>782983</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,7 +2697,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2701,7 +2716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01ABD53C-F709-49A8-8CA5-8580321959A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF12AB39-6402-4F5F-8DE3-E3F34281FF09}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2718,7 +2733,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2825,13 +2840,13 @@
         <v>691970</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H4" s="7">
         <v>882</v>
@@ -2840,13 +2855,13 @@
         <v>946185</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M4" s="7">
         <v>1528</v>
@@ -2855,13 +2870,13 @@
         <v>1638156</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2876,13 +2891,13 @@
         <v>218119</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H5" s="7">
         <v>282</v>
@@ -2891,13 +2906,13 @@
         <v>301875</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M5" s="7">
         <v>483</v>
@@ -2906,13 +2921,13 @@
         <v>519993</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,13 +2942,13 @@
         <v>63386</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H6" s="7">
         <v>82</v>
@@ -2942,13 +2957,13 @@
         <v>88781</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>142</v>
@@ -2957,13 +2972,13 @@
         <v>152167</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,13 +3046,13 @@
         <v>1339435</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>1141</v>
@@ -3046,13 +3061,13 @@
         <v>1226046</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>2401</v>
@@ -3061,13 +3076,13 @@
         <v>2565480</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,13 +3097,13 @@
         <v>505086</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H9" s="7">
         <v>384</v>
@@ -3097,13 +3112,13 @@
         <v>411724</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M9" s="7">
         <v>868</v>
@@ -3112,13 +3127,13 @@
         <v>916809</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,13 +3148,13 @@
         <v>115023</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H10" s="7">
         <v>106</v>
@@ -3148,13 +3163,13 @@
         <v>115139</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M10" s="7">
         <v>214</v>
@@ -3163,13 +3178,13 @@
         <v>230162</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,13 +3252,13 @@
         <v>305396</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H12" s="7">
         <v>286</v>
@@ -3252,13 +3267,13 @@
         <v>320396</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M12" s="7">
         <v>564</v>
@@ -3267,13 +3282,13 @@
         <v>625792</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,13 +3303,13 @@
         <v>138896</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H13" s="7">
         <v>96</v>
@@ -3303,13 +3318,13 @@
         <v>106309</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M13" s="7">
         <v>224</v>
@@ -3318,13 +3333,13 @@
         <v>245205</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3339,13 +3354,13 @@
         <v>36889</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -3354,13 +3369,13 @@
         <v>31925</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M14" s="7">
         <v>62</v>
@@ -3369,13 +3384,13 @@
         <v>68814</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,13 +3458,13 @@
         <v>2336801</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H16" s="7">
         <v>2309</v>
@@ -3458,13 +3473,13 @@
         <v>2492628</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M16" s="7">
         <v>4493</v>
@@ -3473,13 +3488,13 @@
         <v>4829429</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,13 +3509,13 @@
         <v>862100</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H17" s="7">
         <v>762</v>
@@ -3509,13 +3524,13 @@
         <v>819908</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M17" s="7">
         <v>1575</v>
@@ -3524,13 +3539,13 @@
         <v>1682008</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,13 +3560,13 @@
         <v>215298</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H18" s="7">
         <v>218</v>
@@ -3560,13 +3575,13 @@
         <v>235845</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M18" s="7">
         <v>418</v>
@@ -3575,13 +3590,13 @@
         <v>451143</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>227</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,7 +3652,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3656,7 +3671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE918C6-3CA3-4DA9-8045-F5554C548D6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F27D19-1AB8-4390-852B-74ED66195B90}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3673,7 +3688,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3780,13 +3795,13 @@
         <v>529653</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>185</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H4" s="7">
         <v>653</v>
@@ -3795,13 +3810,13 @@
         <v>723899</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>1189</v>
@@ -3810,13 +3825,13 @@
         <v>1253552</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,13 +3846,13 @@
         <v>177273</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>184</v>
@@ -3846,13 +3861,13 @@
         <v>207491</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>364</v>
@@ -3861,13 +3876,13 @@
         <v>384764</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,13 +3897,13 @@
         <v>47421</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H6" s="7">
         <v>52</v>
@@ -3897,13 +3912,13 @@
         <v>59991</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M6" s="7">
         <v>98</v>
@@ -3912,13 +3927,13 @@
         <v>107412</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>141</v>
+        <v>256</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,16 +3998,16 @@
         <v>1390</v>
       </c>
       <c r="D8" s="7">
-        <v>1476808</v>
+        <v>1476809</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>1357</v>
@@ -4001,13 +4016,13 @@
         <v>1408621</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M8" s="7">
         <v>2747</v>
@@ -4016,13 +4031,13 @@
         <v>2885430</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,16 +4049,16 @@
         <v>470</v>
       </c>
       <c r="D9" s="7">
-        <v>499778</v>
+        <v>499779</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H9" s="7">
         <v>434</v>
@@ -4052,13 +4067,13 @@
         <v>453574</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M9" s="7">
         <v>904</v>
@@ -4067,13 +4082,13 @@
         <v>953352</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,13 +4103,13 @@
         <v>97442</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H10" s="7">
         <v>116</v>
@@ -4103,13 +4118,13 @@
         <v>124303</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M10" s="7">
         <v>206</v>
@@ -4118,13 +4133,13 @@
         <v>221744</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>279</v>
+        <v>224</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,7 +4151,7 @@
         <v>1950</v>
       </c>
       <c r="D11" s="7">
-        <v>2074028</v>
+        <v>2074029</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -4192,10 +4207,10 @@
         <v>395211</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>283</v>
+        <v>181</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>284</v>
@@ -4222,7 +4237,7 @@
         <v>778328</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>288</v>
@@ -4327,10 +4342,10 @@
         <v>305</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4398,13 +4413,13 @@
         <v>2401673</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H16" s="7">
         <v>2378</v>
@@ -4413,13 +4428,13 @@
         <v>2515635</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="M16" s="7">
         <v>4668</v>
@@ -4428,13 +4443,13 @@
         <v>4917308</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,13 +4464,13 @@
         <v>801554</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="H17" s="7">
         <v>731</v>
@@ -4464,13 +4479,13 @@
         <v>780015</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="M17" s="7">
         <v>1494</v>
@@ -4479,13 +4494,13 @@
         <v>1581569</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,13 +4515,13 @@
         <v>172035</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H18" s="7">
         <v>212</v>
@@ -4515,10 +4530,10 @@
         <v>230292</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>330</v>
@@ -4530,13 +4545,13 @@
         <v>402327</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>200</v>
+        <v>331</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4592,7 +4607,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4611,7 +4626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BACB96E-B986-4AEE-AADA-481A4F5493B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF16599-0B90-487C-B88C-553A6E5E01D5}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4628,7 +4643,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4735,13 +4750,13 @@
         <v>424100</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H4" s="7">
         <v>1147</v>
@@ -4750,13 +4765,13 @@
         <v>656127</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M4" s="7">
         <v>1694</v>
@@ -4765,13 +4780,13 @@
         <v>1080228</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4801,13 @@
         <v>75245</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H5" s="7">
         <v>203</v>
@@ -4801,13 +4816,13 @@
         <v>127830</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M5" s="7">
         <v>299</v>
@@ -4816,13 +4831,13 @@
         <v>203074</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>92</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,13 +4852,13 @@
         <v>40360</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H6" s="7">
         <v>76</v>
@@ -4852,13 +4867,13 @@
         <v>51329</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M6" s="7">
         <v>122</v>
@@ -4867,13 +4882,13 @@
         <v>91689</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>279</v>
+        <v>224</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,13 +4956,13 @@
         <v>1693130</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H8" s="7">
         <v>2306</v>
@@ -4956,13 +4971,13 @@
         <v>1650893</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M8" s="7">
         <v>3853</v>
@@ -4971,13 +4986,13 @@
         <v>3344023</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,13 +5007,13 @@
         <v>373036</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H9" s="7">
         <v>469</v>
@@ -5007,13 +5022,13 @@
         <v>478741</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M9" s="7">
         <v>822</v>
@@ -5022,13 +5037,13 @@
         <v>851777</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,13 +5058,13 @@
         <v>95856</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H10" s="7">
         <v>145</v>
@@ -5058,13 +5073,13 @@
         <v>118863</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M10" s="7">
         <v>237</v>
@@ -5073,13 +5088,13 @@
         <v>214719</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,13 +5162,13 @@
         <v>488833</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H12" s="7">
         <v>744</v>
@@ -5162,13 +5177,13 @@
         <v>520786</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M12" s="7">
         <v>1246</v>
@@ -5177,13 +5192,13 @@
         <v>1009619</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>391</v>
+        <v>262</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5198,13 +5213,13 @@
         <v>145524</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>319</v>
+        <v>397</v>
       </c>
       <c r="H13" s="7">
         <v>181</v>
@@ -5213,13 +5228,13 @@
         <v>138469</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>318</v>
+        <v>400</v>
       </c>
       <c r="M13" s="7">
         <v>322</v>
@@ -5228,13 +5243,13 @@
         <v>283992</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5249,13 +5264,13 @@
         <v>38682</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="H14" s="7">
         <v>77</v>
@@ -5264,13 +5279,13 @@
         <v>53192</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="M14" s="7">
         <v>115</v>
@@ -5279,13 +5294,13 @@
         <v>91874</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5353,13 +5368,13 @@
         <v>2606063</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H16" s="7">
         <v>4197</v>
@@ -5368,13 +5383,13 @@
         <v>2827806</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="M16" s="7">
         <v>6793</v>
@@ -5383,13 +5398,13 @@
         <v>5433870</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5404,13 +5419,13 @@
         <v>593804</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>188</v>
+        <v>423</v>
       </c>
       <c r="H17" s="7">
         <v>853</v>
@@ -5419,13 +5434,13 @@
         <v>745039</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="M17" s="7">
         <v>1443</v>
@@ -5434,13 +5449,13 @@
         <v>1338844</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5455,13 +5470,13 @@
         <v>174898</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>327</v>
+        <v>431</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="H18" s="7">
         <v>298</v>
@@ -5470,13 +5485,13 @@
         <v>223384</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="M18" s="7">
         <v>474</v>
@@ -5485,13 +5500,13 @@
         <v>398282</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5547,7 +5562,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P05A01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P05A01-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CB65FAB-26FD-4627-BBD6-48EEFF04DC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F9E9329-C090-4D85-AB6C-2B2B726ED562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E8BEB8C4-FA38-4811-A128-FEAA43FA3766}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E8ABE957-D4B8-4CB0-9E36-3AFF8C72024E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="432">
   <si>
     <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2007 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>54,71%</t>
   </si>
   <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
   </si>
   <si>
     <t>52,14%</t>
   </si>
   <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
   </si>
   <si>
     <t>53,27%</t>
   </si>
   <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
   </si>
   <si>
     <t>Algo</t>
@@ -107,28 +107,28 @@
     <t>35,16%</t>
   </si>
   <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
   </si>
   <si>
     <t>34,38%</t>
   </si>
   <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
   </si>
   <si>
     <t>34,72%</t>
   </si>
   <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -137,1219 +137,1204 @@
     <t>10,13%</t>
   </si>
   <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2016 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
     <t>8,26%</t>
   </si>
   <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
   </si>
   <si>
     <t>16,65%</t>
   </si>
   <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
   </si>
   <si>
     <t>5,43%</t>
   </si>
   <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2016 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
+    <t>8,48%</t>
   </si>
   <si>
     <t>77,22%</t>
   </si>
   <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
   </si>
   <si>
     <t>74,49%</t>
   </si>
   <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
   </si>
   <si>
     <t>75,78%</t>
   </si>
   <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
   </si>
   <si>
     <t>17,6%</t>
   </si>
   <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
   </si>
   <si>
     <t>19,63%</t>
   </si>
   <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
   </si>
   <si>
     <t>18,67%</t>
   </si>
   <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
   </si>
   <si>
     <t>5,18%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
   </si>
 </sst>
 </file>
@@ -1761,7 +1746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{343004C9-95DE-4590-8766-ABD52C92CBC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DEA96AC-4530-4EE4-8860-3A881AB6F7B1}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2241,7 +2226,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -2354,7 +2339,7 @@
         <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="H13" s="7">
         <v>169</v>
@@ -2363,13 +2348,13 @@
         <v>178124</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>354</v>
@@ -2378,13 +2363,13 @@
         <v>370539</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,13 +2384,13 @@
         <v>66094</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>59</v>
@@ -2414,13 +2399,13 @@
         <v>63331</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>122</v>
@@ -2429,13 +2414,13 @@
         <v>129425</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,13 +2488,13 @@
         <v>1731295</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>1651</v>
@@ -2518,13 +2503,13 @@
         <v>1697680</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>3337</v>
@@ -2533,13 +2518,13 @@
         <v>3428975</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2554,13 +2539,13 @@
         <v>1216475</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>1196</v>
@@ -2569,13 +2554,13 @@
         <v>1221767</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>2407</v>
@@ -2584,13 +2569,13 @@
         <v>2438242</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2605,13 +2590,13 @@
         <v>327061</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>446</v>
@@ -2620,13 +2605,13 @@
         <v>455922</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="M18" s="7">
         <v>761</v>
@@ -2635,13 +2620,13 @@
         <v>782983</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2697,7 +2682,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2716,7 +2701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF12AB39-6402-4F5F-8DE3-E3F34281FF09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F058F2-7678-4ED0-8F3A-20C1C87E8F66}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2733,7 +2718,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2840,13 +2825,13 @@
         <v>691970</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>882</v>
@@ -2855,13 +2840,13 @@
         <v>946185</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>1528</v>
@@ -2870,13 +2855,13 @@
         <v>1638156</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,13 +2876,13 @@
         <v>218119</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H5" s="7">
         <v>282</v>
@@ -2906,13 +2891,13 @@
         <v>301875</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>483</v>
@@ -2921,13 +2906,13 @@
         <v>519993</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,13 +2927,13 @@
         <v>63386</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H6" s="7">
         <v>82</v>
@@ -2957,13 +2942,13 @@
         <v>88781</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="M6" s="7">
         <v>142</v>
@@ -2972,13 +2957,13 @@
         <v>152167</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,13 +3031,13 @@
         <v>1339435</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>1141</v>
@@ -3061,13 +3046,13 @@
         <v>1226046</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>2401</v>
@@ -3076,13 +3061,13 @@
         <v>2565480</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3082,13 @@
         <v>505086</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H9" s="7">
         <v>384</v>
@@ -3112,13 +3097,13 @@
         <v>411724</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M9" s="7">
         <v>868</v>
@@ -3127,13 +3112,13 @@
         <v>916809</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3133,13 @@
         <v>115023</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H10" s="7">
         <v>106</v>
@@ -3163,13 +3148,13 @@
         <v>115139</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M10" s="7">
         <v>214</v>
@@ -3178,13 +3163,13 @@
         <v>230162</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,13 +3237,13 @@
         <v>305396</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H12" s="7">
         <v>286</v>
@@ -3267,13 +3252,13 @@
         <v>320396</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M12" s="7">
         <v>564</v>
@@ -3282,13 +3267,13 @@
         <v>625792</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,13 +3288,13 @@
         <v>138896</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H13" s="7">
         <v>96</v>
@@ -3318,13 +3303,13 @@
         <v>106309</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M13" s="7">
         <v>224</v>
@@ -3333,13 +3318,13 @@
         <v>245205</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,13 +3339,13 @@
         <v>36889</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -3369,13 +3354,13 @@
         <v>31925</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M14" s="7">
         <v>62</v>
@@ -3384,13 +3369,13 @@
         <v>68814</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,28 +3443,28 @@
         <v>2336801</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H16" s="7">
         <v>2309</v>
       </c>
       <c r="I16" s="7">
-        <v>2492628</v>
+        <v>2492627</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M16" s="7">
         <v>4493</v>
@@ -3488,13 +3473,13 @@
         <v>4829429</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,28 +3494,28 @@
         <v>862100</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H17" s="7">
         <v>762</v>
       </c>
       <c r="I17" s="7">
-        <v>819908</v>
+        <v>819907</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M17" s="7">
         <v>1575</v>
@@ -3539,13 +3524,13 @@
         <v>1682008</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3560,13 +3545,13 @@
         <v>215298</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H18" s="7">
         <v>218</v>
@@ -3575,13 +3560,13 @@
         <v>235845</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M18" s="7">
         <v>418</v>
@@ -3590,10 +3575,10 @@
         <v>451143</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>230</v>
@@ -3623,7 +3608,7 @@
         <v>3289</v>
       </c>
       <c r="I19" s="7">
-        <v>3548380</v>
+        <v>3548379</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -3652,7 +3637,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3671,7 +3656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F27D19-1AB8-4390-852B-74ED66195B90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0306344-6B93-4EEC-B37B-5E7BD656A899}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3798,10 +3783,10 @@
         <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>185</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>653</v>
@@ -3810,13 +3795,13 @@
         <v>723899</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>1189</v>
@@ -3825,13 +3810,13 @@
         <v>1253552</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3846,13 +3831,13 @@
         <v>177273</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>184</v>
@@ -3861,13 +3846,13 @@
         <v>207491</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>364</v>
@@ -3876,13 +3861,13 @@
         <v>384764</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,13 +3882,13 @@
         <v>47421</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H6" s="7">
         <v>52</v>
@@ -3912,13 +3897,13 @@
         <v>59991</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M6" s="7">
         <v>98</v>
@@ -3927,13 +3912,13 @@
         <v>107412</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>257</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,7 +3983,7 @@
         <v>1390</v>
       </c>
       <c r="D8" s="7">
-        <v>1476809</v>
+        <v>1476808</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>258</v>
@@ -4016,7 +4001,7 @@
         <v>1408621</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>261</v>
@@ -4049,7 +4034,7 @@
         <v>470</v>
       </c>
       <c r="D9" s="7">
-        <v>499779</v>
+        <v>499778</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>266</v>
@@ -4073,7 +4058,7 @@
         <v>270</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>271</v>
+        <v>137</v>
       </c>
       <c r="M9" s="7">
         <v>904</v>
@@ -4082,13 +4067,13 @@
         <v>953352</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4088,13 @@
         <v>97442</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H10" s="7">
         <v>116</v>
@@ -4118,13 +4103,13 @@
         <v>124303</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>279</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>280</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>206</v>
@@ -4133,13 +4118,13 @@
         <v>221744</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>224</v>
+        <v>279</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,7 +4136,7 @@
         <v>1950</v>
       </c>
       <c r="D11" s="7">
-        <v>2074029</v>
+        <v>2074028</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -4207,13 +4192,13 @@
         <v>395211</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H12" s="7">
         <v>368</v>
@@ -4222,13 +4207,13 @@
         <v>383117</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M12" s="7">
         <v>732</v>
@@ -4237,13 +4222,13 @@
         <v>778328</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4243,13 @@
         <v>124503</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H13" s="7">
         <v>113</v>
@@ -4273,13 +4258,13 @@
         <v>118950</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M13" s="7">
         <v>226</v>
@@ -4288,13 +4273,13 @@
         <v>243453</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,13 +4294,13 @@
         <v>27172</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H14" s="7">
         <v>44</v>
@@ -4324,13 +4309,13 @@
         <v>45998</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M14" s="7">
         <v>68</v>
@@ -4339,10 +4324,10 @@
         <v>73170</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>306</v>
@@ -4425,7 +4410,7 @@
         <v>2378</v>
       </c>
       <c r="I16" s="7">
-        <v>2515635</v>
+        <v>2515636</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>310</v>
@@ -4485,7 +4470,7 @@
         <v>320</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="M17" s="7">
         <v>1494</v>
@@ -4494,13 +4479,13 @@
         <v>1581569</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,13 +4500,13 @@
         <v>172035</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="H18" s="7">
         <v>212</v>
@@ -4530,13 +4515,13 @@
         <v>230292</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="M18" s="7">
         <v>372</v>
@@ -4545,13 +4530,13 @@
         <v>402327</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4578,7 +4563,7 @@
         <v>3321</v>
       </c>
       <c r="I19" s="7">
-        <v>3525942</v>
+        <v>3525943</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -4607,7 +4592,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4626,7 +4611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF16599-0B90-487C-B88C-553A6E5E01D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E098481-4BA7-4B38-AF2A-04A2E71BE9F2}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4643,7 +4628,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4750,13 +4735,13 @@
         <v>424100</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="H4" s="7">
         <v>1147</v>
@@ -4765,13 +4750,13 @@
         <v>656127</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="M4" s="7">
         <v>1694</v>
@@ -4780,13 +4765,13 @@
         <v>1080228</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,13 +4786,13 @@
         <v>75245</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="H5" s="7">
         <v>203</v>
@@ -4816,13 +4801,13 @@
         <v>127830</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="M5" s="7">
         <v>299</v>
@@ -4831,13 +4816,13 @@
         <v>203074</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4852,13 +4837,13 @@
         <v>40360</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>354</v>
+        <v>279</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H6" s="7">
         <v>76</v>
@@ -4867,13 +4852,13 @@
         <v>51329</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="M6" s="7">
         <v>122</v>
@@ -4882,13 +4867,13 @@
         <v>91689</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>224</v>
+        <v>356</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4930,7 +4915,7 @@
         <v>2115</v>
       </c>
       <c r="N7" s="7">
-        <v>1374991</v>
+        <v>1374992</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4956,13 +4941,13 @@
         <v>1693130</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="H8" s="7">
         <v>2306</v>
@@ -4971,13 +4956,13 @@
         <v>1650893</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M8" s="7">
         <v>3853</v>
@@ -4986,13 +4971,13 @@
         <v>3344023</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5007,13 +4992,13 @@
         <v>373036</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>370</v>
+        <v>65</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H9" s="7">
         <v>469</v>
@@ -5022,13 +5007,13 @@
         <v>478741</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="M9" s="7">
         <v>822</v>
@@ -5037,13 +5022,13 @@
         <v>851777</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,13 +5043,13 @@
         <v>95856</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H10" s="7">
         <v>145</v>
@@ -5073,13 +5058,13 @@
         <v>118863</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="M10" s="7">
         <v>237</v>
@@ -5088,13 +5073,13 @@
         <v>214719</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5162,13 +5147,13 @@
         <v>488833</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>388</v>
+        <v>179</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H12" s="7">
         <v>744</v>
@@ -5177,13 +5162,13 @@
         <v>520786</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>391</v>
+        <v>284</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="M12" s="7">
         <v>1246</v>
@@ -5192,13 +5177,13 @@
         <v>1009619</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>262</v>
+        <v>388</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>394</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,13 +5198,13 @@
         <v>145524</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="H13" s="7">
         <v>181</v>
@@ -5228,13 +5213,13 @@
         <v>138469</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>400</v>
+        <v>267</v>
       </c>
       <c r="M13" s="7">
         <v>322</v>
@@ -5243,13 +5228,13 @@
         <v>283992</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5264,13 +5249,13 @@
         <v>38682</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="H14" s="7">
         <v>77</v>
@@ -5279,13 +5264,13 @@
         <v>53192</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="M14" s="7">
         <v>115</v>
@@ -5294,13 +5279,13 @@
         <v>91874</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,13 +5353,13 @@
         <v>2606063</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H16" s="7">
         <v>4197</v>
@@ -5383,13 +5368,13 @@
         <v>2827806</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="M16" s="7">
         <v>6793</v>
@@ -5398,13 +5383,13 @@
         <v>5433870</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,13 +5404,13 @@
         <v>593804</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="H17" s="7">
         <v>853</v>
@@ -5434,13 +5419,13 @@
         <v>745039</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="M17" s="7">
         <v>1443</v>
@@ -5449,13 +5434,13 @@
         <v>1338844</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5470,13 +5455,13 @@
         <v>174898</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="H18" s="7">
         <v>298</v>
@@ -5485,13 +5470,13 @@
         <v>223384</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="M18" s="7">
         <v>474</v>
@@ -5500,13 +5485,13 @@
         <v>398282</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>386</v>
+        <v>148</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>255</v>
+        <v>427</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,7 +5547,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P05A01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P05A01-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F9E9329-C090-4D85-AB6C-2B2B726ED562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61F1AD32-2A85-47CD-8A29-A924E250C8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E8ABE957-D4B8-4CB0-9E36-3AFF8C72024E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A39E6868-DCA5-4BC2-A429-50DD92B9002F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="435">
   <si>
     <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2007 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -1040,301 +1040,310 @@
     <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2023 (Tasa respuesta: 99,91%)</t>
   </si>
   <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
   </si>
   <si>
     <t>5,43%</t>
   </si>
   <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
   </si>
 </sst>
 </file>
@@ -1746,7 +1755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DEA96AC-4530-4EE4-8860-3A881AB6F7B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223482E4-11ED-47CC-8A3F-9478205BA511}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2226,7 +2235,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -2701,7 +2710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F058F2-7678-4ED0-8F3A-20C1C87E8F66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68858511-B863-4B7B-B237-4ADE6159A2F3}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3264,7 +3273,7 @@
         <v>564</v>
       </c>
       <c r="N12" s="7">
-        <v>625792</v>
+        <v>625793</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>183</v>
@@ -3315,7 +3324,7 @@
         <v>224</v>
       </c>
       <c r="N13" s="7">
-        <v>245205</v>
+        <v>245206</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>192</v>
@@ -3417,7 +3426,7 @@
         <v>850</v>
       </c>
       <c r="N15" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -3656,7 +3665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0306344-6B93-4EEC-B37B-5E7BD656A899}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8C3A65-5541-4AE2-9871-2204306D707D}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4395,7 +4404,7 @@
         <v>2290</v>
       </c>
       <c r="D16" s="7">
-        <v>2401673</v>
+        <v>2401672</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>307</v>
@@ -4548,7 +4557,7 @@
         <v>3213</v>
       </c>
       <c r="D19" s="7">
-        <v>3375262</v>
+        <v>3375261</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -4611,7 +4620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E098481-4BA7-4B38-AF2A-04A2E71BE9F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B2B08B-FF7B-4FA3-B136-25D9548B0F33}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4732,7 +4741,7 @@
         <v>547</v>
       </c>
       <c r="D4" s="7">
-        <v>424100</v>
+        <v>405420</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>333</v>
@@ -4747,7 +4756,7 @@
         <v>1147</v>
       </c>
       <c r="I4" s="7">
-        <v>656127</v>
+        <v>596748</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>336</v>
@@ -4762,7 +4771,7 @@
         <v>1694</v>
       </c>
       <c r="N4" s="7">
-        <v>1080228</v>
+        <v>1002168</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>339</v>
@@ -4783,7 +4792,7 @@
         <v>96</v>
       </c>
       <c r="D5" s="7">
-        <v>75245</v>
+        <v>69591</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>342</v>
@@ -4798,7 +4807,7 @@
         <v>203</v>
       </c>
       <c r="I5" s="7">
-        <v>127830</v>
+        <v>112269</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>345</v>
@@ -4813,7 +4822,7 @@
         <v>299</v>
       </c>
       <c r="N5" s="7">
-        <v>203074</v>
+        <v>181860</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>348</v>
@@ -4834,46 +4843,46 @@
         <v>46</v>
       </c>
       <c r="D6" s="7">
-        <v>40360</v>
+        <v>38072</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>351</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>279</v>
+        <v>352</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H6" s="7">
         <v>76</v>
       </c>
       <c r="I6" s="7">
-        <v>51329</v>
+        <v>45871</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>256</v>
+        <v>354</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M6" s="7">
         <v>122</v>
       </c>
       <c r="N6" s="7">
-        <v>91689</v>
+        <v>83943</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,7 +4894,7 @@
         <v>689</v>
       </c>
       <c r="D7" s="7">
-        <v>539705</v>
+        <v>513084</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4900,7 +4909,7 @@
         <v>1426</v>
       </c>
       <c r="I7" s="7">
-        <v>835286</v>
+        <v>754888</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4915,7 +4924,7 @@
         <v>2115</v>
       </c>
       <c r="N7" s="7">
-        <v>1374992</v>
+        <v>1267972</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4938,46 +4947,46 @@
         <v>1547</v>
       </c>
       <c r="D8" s="7">
-        <v>1693130</v>
+        <v>1848153</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H8" s="7">
         <v>2306</v>
       </c>
       <c r="I8" s="7">
-        <v>1650893</v>
+        <v>1595233</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M8" s="7">
         <v>3853</v>
       </c>
       <c r="N8" s="7">
-        <v>3344023</v>
+        <v>3443386</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,46 +4998,46 @@
         <v>353</v>
       </c>
       <c r="D9" s="7">
-        <v>373036</v>
+        <v>351353</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>65</v>
+        <v>370</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="H9" s="7">
         <v>469</v>
       </c>
       <c r="I9" s="7">
-        <v>478741</v>
+        <v>535030</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="M9" s="7">
         <v>822</v>
       </c>
       <c r="N9" s="7">
-        <v>851777</v>
+        <v>886383</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,46 +5049,46 @@
         <v>92</v>
       </c>
       <c r="D10" s="7">
-        <v>95856</v>
+        <v>90821</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H10" s="7">
         <v>145</v>
       </c>
       <c r="I10" s="7">
-        <v>118863</v>
+        <v>106703</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="M10" s="7">
         <v>237</v>
       </c>
       <c r="N10" s="7">
-        <v>214719</v>
+        <v>197524</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>383</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,7 +5100,7 @@
         <v>1992</v>
       </c>
       <c r="D11" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -5106,7 +5115,7 @@
         <v>2920</v>
       </c>
       <c r="I11" s="7">
-        <v>2248498</v>
+        <v>2236966</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5121,7 +5130,7 @@
         <v>4912</v>
       </c>
       <c r="N11" s="7">
-        <v>4410520</v>
+        <v>4527293</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -5144,46 +5153,46 @@
         <v>502</v>
       </c>
       <c r="D12" s="7">
-        <v>488833</v>
+        <v>466942</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>179</v>
+        <v>387</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>385</v>
+        <v>334</v>
       </c>
       <c r="H12" s="7">
         <v>744</v>
       </c>
       <c r="I12" s="7">
-        <v>520786</v>
+        <v>484884</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>284</v>
+        <v>389</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="M12" s="7">
         <v>1246</v>
       </c>
       <c r="N12" s="7">
-        <v>1009619</v>
+        <v>951826</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>334</v>
+        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5195,46 +5204,46 @@
         <v>141</v>
       </c>
       <c r="D13" s="7">
-        <v>145524</v>
+        <v>138280</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H13" s="7">
         <v>181</v>
       </c>
       <c r="I13" s="7">
-        <v>138469</v>
+        <v>125437</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>267</v>
+        <v>399</v>
       </c>
       <c r="M13" s="7">
         <v>322</v>
       </c>
       <c r="N13" s="7">
-        <v>283992</v>
+        <v>263717</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5246,46 +5255,46 @@
         <v>38</v>
       </c>
       <c r="D14" s="7">
-        <v>38682</v>
+        <v>41401</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="H14" s="7">
         <v>77</v>
       </c>
       <c r="I14" s="7">
-        <v>53192</v>
+        <v>48801</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="M14" s="7">
         <v>115</v>
       </c>
       <c r="N14" s="7">
-        <v>91874</v>
+        <v>90202</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5297,7 +5306,7 @@
         <v>681</v>
       </c>
       <c r="D15" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -5312,7 +5321,7 @@
         <v>1002</v>
       </c>
       <c r="I15" s="7">
-        <v>712446</v>
+        <v>659121</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5327,7 +5336,7 @@
         <v>1683</v>
       </c>
       <c r="N15" s="7">
-        <v>1385485</v>
+        <v>1305744</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -5350,46 +5359,46 @@
         <v>2596</v>
       </c>
       <c r="D16" s="7">
-        <v>2606063</v>
+        <v>2720516</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="H16" s="7">
         <v>4197</v>
       </c>
       <c r="I16" s="7">
-        <v>2827806</v>
+        <v>2676863</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="M16" s="7">
         <v>6793</v>
       </c>
       <c r="N16" s="7">
-        <v>5433870</v>
+        <v>5397380</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5401,46 +5410,46 @@
         <v>590</v>
       </c>
       <c r="D17" s="7">
-        <v>593804</v>
+        <v>559225</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="H17" s="7">
         <v>853</v>
       </c>
       <c r="I17" s="7">
-        <v>745039</v>
+        <v>772736</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="M17" s="7">
         <v>1443</v>
       </c>
       <c r="N17" s="7">
-        <v>1338844</v>
+        <v>1331960</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>424</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5452,46 +5461,46 @@
         <v>176</v>
       </c>
       <c r="D18" s="7">
-        <v>174898</v>
+        <v>170294</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="H18" s="7">
         <v>298</v>
       </c>
       <c r="I18" s="7">
-        <v>223384</v>
+        <v>201375</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>428</v>
+        <v>223</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="M18" s="7">
         <v>474</v>
       </c>
       <c r="N18" s="7">
-        <v>398282</v>
+        <v>371669</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>148</v>
+        <v>305</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5503,7 +5512,7 @@
         <v>3362</v>
       </c>
       <c r="D19" s="7">
-        <v>3374766</v>
+        <v>3450035</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5518,7 +5527,7 @@
         <v>5348</v>
       </c>
       <c r="I19" s="7">
-        <v>3796230</v>
+        <v>3650974</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5533,7 +5542,7 @@
         <v>8710</v>
       </c>
       <c r="N19" s="7">
-        <v>7170996</v>
+        <v>7101009</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
